--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_09.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_09.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hideki Yoshida</t>
+          <t>Rei Endo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
